--- a/data/s_vals/2022/speier_gabe.xlsx
+++ b/data/s_vals/2022/speier_gabe.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.986121056421149</v>
+        <v>15.28448560880142</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4405202784308186</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.528615082440686</v>
+        <v>0.9931934699307545</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.104894435940285</v>
+        <v>1.242251378316819</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/speier_gabe.xlsx
+++ b/data/s_vals/2022/speier_gabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>15.28448560880142</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>0.9931934699307545</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>1.242251378316819</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/speier_gabe.xlsx
+++ b/data/s_vals/2022/speier_gabe.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>15.28448560880142</v>
+        <v>18.91276827552123</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04271373187048222</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9931934699307545</v>
+        <v>1.029605918290258</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.242251378316819</v>
+        <v>1.276001064745008</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
